--- a/biology/Biochimie/Prix_Heinrich-Wieland/Prix_Heinrich-Wieland.xlsx
+++ b/biology/Biochimie/Prix_Heinrich-Wieland/Prix_Heinrich-Wieland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Heinrich-Wieland est un prix annuel décerné par la Fondation Boehringer Ingelheim pour des recherches exceptionnelles sur des molécules et des systèmes biologiquement actifs dans les domaines de la chimie, de la biochimie et de la physiologie ainsi que pour leur importance clinique.
@@ -512,7 +524,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix porte le nom de Heinrich Wieland (1877-1957), lauréat du prix Nobel de chimie, l'un des principaux chimistes des lipides de la première moitié du XXe siècle.
 Heinrich Wieland, qui a donné le nom au prix est le suivant :  Heinrich Wieland est un cousin d'Helene Boehringer, l'épouse du fondateur de l'entreprise Albert Boehringer. De 1915 aux années 1920, Heinrich Wieland a également été conseiller chez Boehringer Ingelheim et il a mis en place à cette époque le premier département scientifique de l'entreprise.
@@ -548,7 +562,9 @@
           <t>Lauréat de la médaille Heinrich Wieland en or pour l'ensemble de son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Depuis l'an 2000, il y a aussi une médaille en or au nom de Heinrich Wieland ; elle a été attribué à quatre reprises, depuis 2000 :
 1989 Gotthard Schettler (de), Clinique médicale universitaire de Heidelberg (Allemagne) ;
@@ -582,7 +598,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Source : Fondation Boehringer Ingelheim Lauréats du prix Heinrich Wieland depuis 2020
 1964 : Ernst Klenk
@@ -631,20 +649,20 @@
 2006 : Alois Fürstner
 2007 : Joachim Herz
 2008 : Markus Stoffel
-2009 : Steven Ley[1]
-2010 : Nenad Ban[2]
-2011 : Franz-Ulrich Hartl[3]
-2012 : Carolyn R. Bertozzi[4]
-2013 : Tony Kouzarides[5]
+2009 : Steven Ley
+2010 : Nenad Ban
+2011 : Franz-Ulrich Hartl
+2012 : Carolyn R. Bertozzi
+2013 : Tony Kouzarides
 2014 : Reinhard Jahn
 2015 : Gero Miesenböck
 2016 : Peter G. Schultz
-2017 : Alexander Varshavsky[6]
+2017 : Alexander Varshavsky
 2018 : Pascale Cossart
 2019 : Jens Claus Brüning (de)
 2020 : Craig M. Crews (en)
 2021 : Thomas Boehm  (biologiste) (en)
-2022 : Xiaowei Zhuang[7]
+2022 : Xiaowei Zhuang
 2023 : Matthias Tschöp (en)
 </t>
         </is>
